--- a/biology/Histoire de la zoologie et de la botanique/Musée_d'histoire_naturelle_de_l'université_d'Oxford/Musée_d'histoire_naturelle_de_l'université_d'Oxford.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Musée_d'histoire_naturelle_de_l'université_d'Oxford/Musée_d'histoire_naturelle_de_l'université_d'Oxford.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_d%27histoire_naturelle_de_l%27universit%C3%A9_d%27Oxford</t>
+          <t>Musée_d'histoire_naturelle_de_l'université_d'Oxford</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée d'histoire naturelle de l'université d'Oxford, parfois appelé simplement le musée de l'université d'Oxford, est un musée d'histoire naturelle présentant de nombreuses collections de sciences naturelles, situé dans la plus ancienne université anglaise, l'université d'Oxford, en Angleterre[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée d'histoire naturelle de l'université d'Oxford, parfois appelé simplement le musée de l'université d'Oxford, est un musée d'histoire naturelle présentant de nombreuses collections de sciences naturelles, situé dans la plus ancienne université anglaise, l'université d'Oxford, en Angleterre,.
 La construction d'un bâtiment regroupant toutes les collections est initiée en 1855 par Henry Acland avec le soutien financier et intellectuel de son ami John Ruskin et construit par Benjamin Woodward.
 </t>
         </is>
